--- a/docs/Clients_FE_TP.xlsx
+++ b/docs/Clients_FE_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB98AFA-B2E9-499C-9698-FAFD6F34CBDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D592AA-C192-4CF5-A4B2-963F924E819E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Planned</t>
   </si>
   <si>
-    <t>Allianz</t>
-  </si>
-  <si>
     <t>Test Factory</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Test Type</t>
   </si>
   <si>
-    <t>Test Division</t>
-  </si>
-  <si>
     <t>Certifier</t>
   </si>
   <si>
@@ -141,6 +135,75 @@
   </si>
   <si>
     <t>Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accedere a MW come frontline &gt;Landing Clients e cliccare il pulsante Nuovo Cliente PG - inserire il CF della PG e ricercare in banca dati - premere aggiungi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che si apra la maschera di censimento con i campi prevalorizzati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire i dati mancanti e premere avanti&gt;Contatti inserire la mail e modificare l'indirizzo della sede legale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che l'operazione vada a buon fine  </t>
+  </si>
+  <si>
+    <t>Consensi&gt;tutto no</t>
+  </si>
+  <si>
+    <t>Premere Conferma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che si apra il folder per l'inserimento della visura camerale - inserire l'autocertificazione e verificare che l'inserimento venga bloccato - cancellare il documento e inserire la visura - procedere - verificre che l'unico venga stampato correttamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che venga trovato e che si possa accedere alla scheda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix web </t>
+  </si>
+  <si>
+    <t>Verificare che la scheda del cliente riporti tutte le informazioni inserite in fase di censimento; verificare il dettaglio anagrafica e la sidebar + Archivio cliente non dovrebbe esserci registrato nulla + verificare il folder e i referenti (dovrebbe riportare l'agenzia e il codice del collaboratore)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA menu azioni (sidebar) - emettere una Plein Air </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che l'operazione vada a buon fine e che la plein air venga salvata correttamente nel folder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA </t>
+  </si>
+  <si>
+    <t>Verificare che la scheda del cliente riporti tutte le informazioni inserite in fase di censimento; verificare il dettaglio anagrafica  - verificare il folder (Unico + plein Air)</t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Censimento Nuovo cliente PG (2) </t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (3)</t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (4)</t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (5)</t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (6)</t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (7)</t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricercare il cliente appena censito nella buca di ricerca </t>
   </si>
 </sst>
 </file>
@@ -180,7 +243,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,13 +297,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,264 +643,471 @@
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>4</v>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
